--- a/Code/Results/Cases/Case_3_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.87131585767208</v>
+        <v>16.89431068226313</v>
       </c>
       <c r="C2">
-        <v>13.98063204560648</v>
+        <v>11.27777840111306</v>
       </c>
       <c r="D2">
-        <v>3.58836807957564</v>
+        <v>5.350536554766854</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.99757540961381</v>
+        <v>29.07368784240456</v>
       </c>
       <c r="G2">
-        <v>37.19879350788179</v>
+        <v>37.50544705067728</v>
       </c>
       <c r="H2">
-        <v>11.30316119621455</v>
+        <v>16.07299276724145</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.611242949109271</v>
+        <v>10.71929615084124</v>
       </c>
       <c r="M2">
-        <v>12.76331067715508</v>
+        <v>15.95783662952572</v>
       </c>
       <c r="N2">
-        <v>12.15534010424037</v>
+        <v>18.75475445371866</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.34852754459292</v>
+        <v>16.43596285531251</v>
       </c>
       <c r="C3">
-        <v>13.31934980002974</v>
+        <v>11.00974897504455</v>
       </c>
       <c r="D3">
-        <v>3.625552800111479</v>
+        <v>5.358677960774445</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.92209410286186</v>
+        <v>28.94556821552616</v>
       </c>
       <c r="G3">
-        <v>35.44780905733212</v>
+        <v>37.22429545868221</v>
       </c>
       <c r="H3">
-        <v>11.10171933911831</v>
+        <v>16.09118361987715</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.552224439766937</v>
+        <v>10.73452150675075</v>
       </c>
       <c r="M3">
-        <v>12.19127592774211</v>
+        <v>15.88106756311351</v>
       </c>
       <c r="N3">
-        <v>12.41369978936188</v>
+        <v>18.82637848821093</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.36178955288243</v>
+        <v>16.15203426945391</v>
       </c>
       <c r="C4">
-        <v>12.89704800546089</v>
+        <v>10.83998804464156</v>
       </c>
       <c r="D4">
-        <v>3.648713883068021</v>
+        <v>5.363924950982267</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.2668905397925</v>
+        <v>28.87602119513166</v>
       </c>
       <c r="G4">
-        <v>34.37439693662991</v>
+        <v>37.06476107081937</v>
       </c>
       <c r="H4">
-        <v>10.98708733589302</v>
+        <v>16.10608002602714</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.519276050974968</v>
+        <v>10.74540066189807</v>
       </c>
       <c r="M4">
-        <v>11.83353250064892</v>
+        <v>15.83691825520078</v>
       </c>
       <c r="N4">
-        <v>12.57496732739432</v>
+        <v>18.87229701227112</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.94656853006476</v>
+        <v>16.03589088573713</v>
       </c>
       <c r="C5">
-        <v>12.7209548706907</v>
+        <v>10.76955867769252</v>
       </c>
       <c r="D5">
-        <v>3.658241705787466</v>
+        <v>5.366125802953968</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.00151238690646</v>
+        <v>28.84999319093487</v>
       </c>
       <c r="G5">
-        <v>33.93795593765947</v>
+        <v>37.00310350712443</v>
       </c>
       <c r="H5">
-        <v>10.94261629616129</v>
+        <v>16.11308546372733</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.506664067433878</v>
+        <v>10.750218992836</v>
       </c>
       <c r="M5">
-        <v>11.68630295490796</v>
+        <v>15.81969199735325</v>
       </c>
       <c r="N5">
-        <v>12.64139185247079</v>
+        <v>18.89149896006376</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.8768261663554</v>
+        <v>16.0165844766675</v>
       </c>
       <c r="C6">
-        <v>12.69147612184864</v>
+        <v>10.75779007984713</v>
       </c>
       <c r="D6">
-        <v>3.659829388814661</v>
+        <v>5.366495045155007</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.95755477601383</v>
+        <v>28.84581146841728</v>
       </c>
       <c r="G6">
-        <v>33.86556233541063</v>
+        <v>36.99306953796672</v>
       </c>
       <c r="H6">
-        <v>10.93536623665333</v>
+        <v>16.11430511404281</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.50461868721367</v>
+        <v>10.75104232651552</v>
       </c>
       <c r="M6">
-        <v>11.66177439563646</v>
+        <v>15.81687817397154</v>
       </c>
       <c r="N6">
-        <v>12.65246552557084</v>
+        <v>18.89471705939838</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.35624298453779</v>
+        <v>16.15046944522045</v>
       </c>
       <c r="C7">
-        <v>12.89468921920805</v>
+        <v>10.83904319760132</v>
       </c>
       <c r="D7">
-        <v>3.648842007634059</v>
+        <v>5.363954378391489</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.2633045291234</v>
+        <v>28.8756607837289</v>
       </c>
       <c r="G7">
-        <v>34.36850616952847</v>
+        <v>37.0639158796069</v>
       </c>
       <c r="H7">
-        <v>10.98647855382582</v>
+        <v>16.10617072110946</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.519102679424038</v>
+        <v>10.74546408473477</v>
       </c>
       <c r="M7">
-        <v>11.83155249362782</v>
+        <v>15.83668282120075</v>
       </c>
       <c r="N7">
-        <v>12.57586023355278</v>
+        <v>18.87255399117566</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.35693024552828</v>
+        <v>16.73690174824507</v>
       </c>
       <c r="C8">
-        <v>13.75604612921415</v>
+        <v>11.18647061913488</v>
       </c>
       <c r="D8">
-        <v>3.601125041630803</v>
+        <v>5.353292370552574</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.62586746509276</v>
+        <v>29.02763263468865</v>
       </c>
       <c r="G8">
-        <v>36.59501014375555</v>
+        <v>37.40582747534734</v>
       </c>
       <c r="H8">
-        <v>11.23180582801319</v>
+        <v>16.07849018629358</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.590203509758124</v>
+        <v>10.72422820808953</v>
       </c>
       <c r="M8">
-        <v>12.56753056934646</v>
+        <v>15.93075523120465</v>
       </c>
       <c r="N8">
-        <v>12.24390355716548</v>
+        <v>18.77904856503973</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.87496959245656</v>
+        <v>17.85926327265036</v>
       </c>
       <c r="C9">
-        <v>15.31324865864272</v>
+        <v>11.82438643190792</v>
       </c>
       <c r="D9">
-        <v>3.509856262185375</v>
+        <v>5.334341090591135</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.32630377760039</v>
+        <v>29.39695517248684</v>
       </c>
       <c r="G9">
-        <v>40.95463509797307</v>
+        <v>38.17715651384776</v>
       </c>
       <c r="H9">
-        <v>11.78605232688218</v>
+        <v>16.05386635257521</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.756253344064385</v>
+        <v>10.69472618635691</v>
       </c>
       <c r="M9">
-        <v>13.952174649834</v>
+        <v>16.13828280215571</v>
       </c>
       <c r="N9">
-        <v>11.61166724956115</v>
+        <v>18.61100830596449</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.22043763064011</v>
+        <v>18.65737777383196</v>
       </c>
       <c r="C10">
-        <v>16.37464363041689</v>
+        <v>12.26391799829775</v>
       </c>
       <c r="D10">
-        <v>3.443759095042766</v>
+        <v>5.321594072783778</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.31454183936129</v>
+        <v>29.71012307276252</v>
       </c>
       <c r="G10">
-        <v>44.13361700119355</v>
+        <v>38.80078079360953</v>
       </c>
       <c r="H10">
-        <v>12.23951695535044</v>
+        <v>16.05395037052321</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.895178087690379</v>
+        <v>10.68044581113862</v>
       </c>
       <c r="M10">
-        <v>15.17064736402001</v>
+        <v>16.30387489708052</v>
       </c>
       <c r="N10">
-        <v>11.15530153426276</v>
+        <v>18.49677954647522</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.2373864068597</v>
+        <v>19.01290860374274</v>
       </c>
       <c r="C11">
-        <v>16.83945190018827</v>
+        <v>12.45704643364208</v>
       </c>
       <c r="D11">
-        <v>3.413796574951133</v>
+        <v>5.316047135324506</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.21824905613858</v>
+        <v>29.86125442464778</v>
       </c>
       <c r="G11">
-        <v>45.57232401338576</v>
+        <v>39.0957605116188</v>
       </c>
       <c r="H11">
-        <v>12.4562047823885</v>
+        <v>16.05794758881534</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.962203415369991</v>
+        <v>10.6755525266439</v>
       </c>
       <c r="M11">
-        <v>15.726836448924</v>
+        <v>16.38184066741271</v>
       </c>
       <c r="N11">
-        <v>10.94865315337134</v>
+        <v>18.44679437081693</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.61545359865077</v>
+        <v>19.14632173947444</v>
       </c>
       <c r="C12">
-        <v>17.01288424767631</v>
+        <v>12.52916191860088</v>
       </c>
       <c r="D12">
-        <v>3.402457155203233</v>
+        <v>5.313982594833497</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.56028108045398</v>
+        <v>29.91969081166974</v>
       </c>
       <c r="G12">
-        <v>46.11599349580167</v>
+        <v>39.20898762828861</v>
       </c>
       <c r="H12">
-        <v>12.53978620555485</v>
+        <v>16.06003080844652</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.988147070800914</v>
+        <v>10.6739297448487</v>
       </c>
       <c r="M12">
-        <v>15.93368088713149</v>
+        <v>16.41172420267452</v>
       </c>
       <c r="N12">
-        <v>10.87046477758627</v>
+        <v>18.42814895122515</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.5343399580044</v>
+        <v>19.11764505678972</v>
       </c>
       <c r="C13">
-        <v>16.9756468965004</v>
+        <v>12.5136764037098</v>
       </c>
       <c r="D13">
-        <v>3.404899139003764</v>
+        <v>5.31442563475488</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.48662703304933</v>
+        <v>29.90705251551515</v>
       </c>
       <c r="G13">
-        <v>45.99895521019975</v>
+        <v>39.1845359395688</v>
       </c>
       <c r="H13">
-        <v>12.52171701972832</v>
+        <v>16.05955681887253</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.982534413045026</v>
+        <v>10.67426900720903</v>
       </c>
       <c r="M13">
-        <v>15.88929947035282</v>
+        <v>16.4052725745428</v>
       </c>
       <c r="N13">
-        <v>10.88730238395153</v>
+        <v>18.43215201945996</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.26863011920541</v>
+        <v>19.02390973748179</v>
       </c>
       <c r="C14">
-        <v>16.85377187548669</v>
+        <v>12.46300002616117</v>
       </c>
       <c r="D14">
-        <v>3.41286358809109</v>
+        <v>5.31587656489514</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.24639210813024</v>
+        <v>29.86603808809383</v>
       </c>
       <c r="G14">
-        <v>45.61707488031327</v>
+        <v>39.10504579512594</v>
       </c>
       <c r="H14">
-        <v>12.46305029113243</v>
+        <v>16.05810756174575</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.964326466494125</v>
+        <v>10.67541440781461</v>
       </c>
       <c r="M14">
-        <v>15.74392871599426</v>
+        <v>16.38429211163483</v>
       </c>
       <c r="N14">
-        <v>10.9422196873862</v>
+        <v>18.44525474046788</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.10496481248861</v>
+        <v>18.96633163821321</v>
       </c>
       <c r="C15">
-        <v>16.77878447727908</v>
+        <v>12.43182563487907</v>
       </c>
       <c r="D15">
-        <v>3.417742666696864</v>
+        <v>5.316769978181191</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.09921633000833</v>
+        <v>29.84107140640515</v>
       </c>
       <c r="G15">
-        <v>45.38301359759792</v>
+        <v>39.05655135779361</v>
       </c>
       <c r="H15">
-        <v>12.4273150049889</v>
+        <v>16.05729402386944</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.953247221151496</v>
+        <v>10.67614596750722</v>
       </c>
       <c r="M15">
-        <v>15.65439651550603</v>
+        <v>16.37148720895241</v>
       </c>
       <c r="N15">
-        <v>10.97586430618599</v>
+        <v>18.45331732877638</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.1529848321234</v>
+        <v>18.63397954064667</v>
       </c>
       <c r="C16">
-        <v>16.34390521399791</v>
+        <v>12.25115612024175</v>
       </c>
       <c r="D16">
-        <v>3.445718622685536</v>
+        <v>5.321961623643358</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.25545965966739</v>
+        <v>29.70041734253446</v>
       </c>
       <c r="G16">
-        <v>44.03943648355841</v>
+        <v>38.78172199369649</v>
       </c>
       <c r="H16">
-        <v>12.22556773596625</v>
+        <v>16.05376884006379</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.890875871043632</v>
+        <v>10.68079782950392</v>
       </c>
       <c r="M16">
-        <v>15.13376605751321</v>
+        <v>16.29883105252893</v>
       </c>
       <c r="N16">
-        <v>11.16881966579307</v>
+        <v>18.50008586523148</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.55627766525458</v>
+        <v>18.42806230596655</v>
       </c>
       <c r="C17">
-        <v>16.07250713635063</v>
+        <v>12.13854730862042</v>
       </c>
       <c r="D17">
-        <v>3.462902046076113</v>
+        <v>5.325210838386067</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.73757867469649</v>
+        <v>29.61632322580908</v>
       </c>
       <c r="G17">
-        <v>43.21321271587446</v>
+        <v>38.61594556368851</v>
       </c>
       <c r="H17">
-        <v>12.10448721096849</v>
+        <v>16.05262056874009</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.853601858714526</v>
+        <v>10.68406194997012</v>
       </c>
       <c r="M17">
-        <v>14.80755671746075</v>
+        <v>16.25492051586976</v>
       </c>
       <c r="N17">
-        <v>11.28738661146572</v>
+        <v>18.52928236257947</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.20834922650595</v>
+        <v>18.30892218241446</v>
       </c>
       <c r="C18">
-        <v>15.91470773823584</v>
+        <v>12.07313812172143</v>
       </c>
       <c r="D18">
-        <v>3.472795937951333</v>
+        <v>5.327103409974261</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.43963728898054</v>
+        <v>29.56877315088757</v>
       </c>
       <c r="G18">
-        <v>42.73728955049913</v>
+        <v>38.52166416868589</v>
       </c>
       <c r="H18">
-        <v>12.03582218407747</v>
+        <v>16.05233276414727</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.832522353454565</v>
+        <v>10.68609028278447</v>
       </c>
       <c r="M18">
-        <v>14.6173944902595</v>
+        <v>16.22991376871779</v>
       </c>
       <c r="N18">
-        <v>11.35567775474555</v>
+        <v>18.54626169261854</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.0897315042025</v>
+        <v>18.26846713380376</v>
       </c>
       <c r="C19">
-        <v>15.86098778523735</v>
+        <v>12.0508830554967</v>
       </c>
       <c r="D19">
-        <v>3.4761478858536</v>
+        <v>5.327748281563472</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.33875064159072</v>
+        <v>29.5528153026996</v>
       </c>
       <c r="G19">
-        <v>42.57603343751244</v>
+        <v>38.48992863101428</v>
       </c>
       <c r="H19">
-        <v>12.01274039254058</v>
+        <v>16.0522993067287</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.825446585779408</v>
+        <v>10.68680296632396</v>
       </c>
       <c r="M19">
-        <v>14.55257071042296</v>
+        <v>16.22149034170859</v>
       </c>
       <c r="N19">
-        <v>11.37881830329897</v>
+        <v>18.55204264302973</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.62028534224655</v>
+        <v>18.45005621605678</v>
       </c>
       <c r="C20">
-        <v>16.10157367088821</v>
+        <v>12.15060118749931</v>
       </c>
       <c r="D20">
-        <v>3.461071820971125</v>
+        <v>5.324862501825708</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.79271594836251</v>
+        <v>29.62519074676553</v>
       </c>
       <c r="G20">
-        <v>43.30123902100758</v>
+        <v>38.6334828328859</v>
       </c>
       <c r="H20">
-        <v>12.11727509076706</v>
+        <v>16.05270423294604</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.857532446513861</v>
+        <v>10.6836988634833</v>
       </c>
       <c r="M20">
-        <v>14.84254400312577</v>
+        <v>16.25956919233683</v>
       </c>
       <c r="N20">
-        <v>11.27475567298116</v>
+        <v>18.52615507792778</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.34686494827644</v>
+        <v>19.05147616394963</v>
       </c>
       <c r="C21">
-        <v>16.88963938286927</v>
+        <v>12.47791282132938</v>
       </c>
       <c r="D21">
-        <v>3.410524121735271</v>
+        <v>5.315449417340214</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.31696017909274</v>
+        <v>29.8780526187337</v>
       </c>
       <c r="G21">
-        <v>45.7292733357231</v>
+        <v>39.12835340135909</v>
       </c>
       <c r="H21">
-        <v>12.48024043554313</v>
+        <v>16.05851778603708</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.969659210452214</v>
+        <v>10.67507173105181</v>
       </c>
       <c r="M21">
-        <v>15.78672924158106</v>
+        <v>16.39044498232438</v>
       </c>
       <c r="N21">
-        <v>10.92608799426769</v>
+        <v>18.44139848876112</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.43439786072624</v>
+        <v>19.43738131153346</v>
       </c>
       <c r="C22">
-        <v>17.38966190577892</v>
+        <v>12.68588065459866</v>
       </c>
       <c r="D22">
-        <v>3.377523486226566</v>
+        <v>5.309506943681065</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.31208653436898</v>
+        <v>30.05032268083294</v>
       </c>
       <c r="G22">
-        <v>47.30954014796937</v>
+        <v>39.4606190270787</v>
       </c>
       <c r="H22">
-        <v>12.72637506194477</v>
+        <v>16.06563692856879</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.046226364114619</v>
+        <v>10.67077499460755</v>
       </c>
       <c r="M22">
-        <v>16.38186896643355</v>
+        <v>16.47806633935732</v>
       </c>
       <c r="N22">
-        <v>10.69855301726403</v>
+        <v>18.38765329069771</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.85764493472336</v>
+        <v>19.23211290522619</v>
       </c>
       <c r="C23">
-        <v>17.12415711581819</v>
+        <v>12.57544029621202</v>
       </c>
       <c r="D23">
-        <v>3.395136163053986</v>
+        <v>5.312659459446978</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.78107480041226</v>
+        <v>29.95775151391029</v>
       </c>
       <c r="G23">
-        <v>46.46672301166588</v>
+        <v>39.28250729211093</v>
       </c>
       <c r="H23">
-        <v>12.59418103195415</v>
+        <v>16.06153358437092</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.005056073290786</v>
+        <v>10.67294560256851</v>
       </c>
       <c r="M23">
-        <v>16.06620693379932</v>
+        <v>16.43111689280957</v>
       </c>
       <c r="N23">
-        <v>10.81998739717273</v>
+        <v>18.4161878236093</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.59136266364085</v>
+        <v>18.44011511228294</v>
       </c>
       <c r="C24">
-        <v>16.08843820142793</v>
+        <v>12.14515370948217</v>
       </c>
       <c r="D24">
-        <v>3.461899218657067</v>
+        <v>5.325019908250444</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.76778901820685</v>
+        <v>29.62117925555872</v>
       </c>
       <c r="G24">
-        <v>43.26144517546386</v>
+        <v>38.62555103097174</v>
       </c>
       <c r="H24">
-        <v>12.11149074662124</v>
+        <v>16.05266524844977</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.855754339061834</v>
+        <v>10.68386254218565</v>
       </c>
       <c r="M24">
-        <v>14.82673441926457</v>
+        <v>16.25746678282677</v>
       </c>
       <c r="N24">
-        <v>11.28046572420655</v>
+        <v>18.52756831923054</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.96586046336678</v>
+        <v>17.5596337322939</v>
       </c>
       <c r="C25">
-        <v>14.90641275824163</v>
+        <v>11.65675071093564</v>
       </c>
       <c r="D25">
-        <v>3.534345377615413</v>
+        <v>5.339260136232431</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.59425899885382</v>
+        <v>29.28956607227584</v>
       </c>
       <c r="G25">
-        <v>39.77836576732749</v>
+        <v>37.95814184137536</v>
       </c>
       <c r="H25">
-        <v>11.62810346098508</v>
+        <v>16.05734134445677</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.708409092775377</v>
+        <v>10.70140794729809</v>
       </c>
       <c r="M25">
-        <v>13.58472082350192</v>
+        <v>16.07976594757442</v>
       </c>
       <c r="N25">
-        <v>11.78102136598574</v>
+        <v>18.65483868667901</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.89431068226313</v>
+        <v>21.87131585767214</v>
       </c>
       <c r="C2">
-        <v>11.27777840111306</v>
+        <v>13.98063204560659</v>
       </c>
       <c r="D2">
-        <v>5.350536554766854</v>
+        <v>3.588368079575642</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.07368784240456</v>
+        <v>25.99757540961377</v>
       </c>
       <c r="G2">
-        <v>37.50544705067728</v>
+        <v>37.1987935078817</v>
       </c>
       <c r="H2">
-        <v>16.07299276724145</v>
+        <v>11.30316119621463</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.71929615084124</v>
+        <v>6.611242949109227</v>
       </c>
       <c r="M2">
-        <v>15.95783662952572</v>
+        <v>12.76331067715506</v>
       </c>
       <c r="N2">
-        <v>18.75475445371866</v>
+        <v>12.15534010424031</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.43596285531251</v>
+        <v>20.34852754459291</v>
       </c>
       <c r="C3">
-        <v>11.00974897504455</v>
+        <v>13.31934980002984</v>
       </c>
       <c r="D3">
-        <v>5.358677960774445</v>
+        <v>3.625552800111345</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.94556821552616</v>
+        <v>24.92209410286183</v>
       </c>
       <c r="G3">
-        <v>37.22429545868221</v>
+        <v>35.44780905733205</v>
       </c>
       <c r="H3">
-        <v>16.09118361987715</v>
+        <v>11.10171933911838</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.73452150675075</v>
+        <v>6.552224439766839</v>
       </c>
       <c r="M3">
-        <v>15.88106756311351</v>
+        <v>12.19127592774209</v>
       </c>
       <c r="N3">
-        <v>18.82637848821093</v>
+        <v>12.41369978936188</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.15203426945391</v>
+        <v>19.36178955288243</v>
       </c>
       <c r="C4">
-        <v>10.83998804464156</v>
+        <v>12.89704800546078</v>
       </c>
       <c r="D4">
-        <v>5.363924950982267</v>
+        <v>3.648713883068159</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.87602119513166</v>
+        <v>24.26689053979258</v>
       </c>
       <c r="G4">
-        <v>37.06476107081937</v>
+        <v>34.37439693663006</v>
       </c>
       <c r="H4">
-        <v>16.10608002602714</v>
+        <v>10.98708733589311</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.74540066189807</v>
+        <v>6.519276050975003</v>
       </c>
       <c r="M4">
-        <v>15.83691825520078</v>
+        <v>11.83353250064894</v>
       </c>
       <c r="N4">
-        <v>18.87229701227112</v>
+        <v>12.57496732739439</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.03589088573713</v>
+        <v>18.94656853006477</v>
       </c>
       <c r="C5">
-        <v>10.76955867769252</v>
+        <v>12.7209548706907</v>
       </c>
       <c r="D5">
-        <v>5.366125802953968</v>
+        <v>3.658241705787531</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.84999319093487</v>
+        <v>24.00151238690639</v>
       </c>
       <c r="G5">
-        <v>37.00310350712443</v>
+        <v>33.93795593765943</v>
       </c>
       <c r="H5">
-        <v>16.11308546372733</v>
+        <v>10.94261629616125</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.750218992836</v>
+        <v>6.506664067433957</v>
       </c>
       <c r="M5">
-        <v>15.81969199735325</v>
+        <v>11.68630295490797</v>
       </c>
       <c r="N5">
-        <v>18.89149896006376</v>
+        <v>12.64139185247069</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.0165844766675</v>
+        <v>18.87682616635536</v>
       </c>
       <c r="C6">
-        <v>10.75779007984713</v>
+        <v>12.69147612184866</v>
       </c>
       <c r="D6">
-        <v>5.366495045155007</v>
+        <v>3.659829388814861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.84581146841728</v>
+        <v>23.9575547760139</v>
       </c>
       <c r="G6">
-        <v>36.99306953796672</v>
+        <v>33.86556233541078</v>
       </c>
       <c r="H6">
-        <v>16.11430511404281</v>
+        <v>10.93536623665342</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.75104232651552</v>
+        <v>6.504618687213691</v>
       </c>
       <c r="M6">
-        <v>15.81687817397154</v>
+        <v>11.66177439563648</v>
       </c>
       <c r="N6">
-        <v>18.89471705939838</v>
+        <v>12.65246552557094</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.15046944522045</v>
+        <v>19.35624298453775</v>
       </c>
       <c r="C7">
-        <v>10.83904319760132</v>
+        <v>12.89468921920827</v>
       </c>
       <c r="D7">
-        <v>5.363954378391489</v>
+        <v>3.648842007634191</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.8756607837289</v>
+        <v>24.2633045291234</v>
       </c>
       <c r="G7">
-        <v>37.0639158796069</v>
+        <v>34.36850616952846</v>
       </c>
       <c r="H7">
-        <v>16.10617072110946</v>
+        <v>10.98647855382588</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.74546408473477</v>
+        <v>6.51910267942409</v>
       </c>
       <c r="M7">
-        <v>15.83668282120075</v>
+        <v>11.83155249362787</v>
       </c>
       <c r="N7">
-        <v>18.87255399117566</v>
+        <v>12.57586023355275</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.73690174824507</v>
+        <v>21.3569302455283</v>
       </c>
       <c r="C8">
-        <v>11.18647061913488</v>
+        <v>13.75604612921406</v>
       </c>
       <c r="D8">
-        <v>5.353292370552574</v>
+        <v>3.601125041630798</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.02763263468865</v>
+        <v>25.62586746509272</v>
       </c>
       <c r="G8">
-        <v>37.40582747534734</v>
+        <v>36.59501014375551</v>
       </c>
       <c r="H8">
-        <v>16.07849018629358</v>
+        <v>11.2318058280132</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.72422820808953</v>
+        <v>6.590203509758117</v>
       </c>
       <c r="M8">
-        <v>15.93075523120465</v>
+        <v>12.56753056934645</v>
       </c>
       <c r="N8">
-        <v>18.77904856503973</v>
+        <v>12.24390355716539</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.85926327265036</v>
+        <v>24.8749695924566</v>
       </c>
       <c r="C9">
-        <v>11.82438643190792</v>
+        <v>15.31324865864261</v>
       </c>
       <c r="D9">
-        <v>5.334341090591135</v>
+        <v>3.509856262185439</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.39695517248684</v>
+        <v>28.32630377760037</v>
       </c>
       <c r="G9">
-        <v>38.17715651384776</v>
+        <v>40.95463509797309</v>
       </c>
       <c r="H9">
-        <v>16.05386635257521</v>
+        <v>11.78605232688218</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.69472618635691</v>
+        <v>6.756253344064313</v>
       </c>
       <c r="M9">
-        <v>16.13828280215571</v>
+        <v>13.95217464983398</v>
       </c>
       <c r="N9">
-        <v>18.61100830596449</v>
+        <v>11.61166724956115</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.65737777383196</v>
+        <v>27.22043763064013</v>
       </c>
       <c r="C10">
-        <v>12.26391799829775</v>
+        <v>16.37464363041698</v>
       </c>
       <c r="D10">
-        <v>5.321594072783778</v>
+        <v>3.443759095042692</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.71012307276252</v>
+        <v>30.3145418393613</v>
       </c>
       <c r="G10">
-        <v>38.80078079360953</v>
+        <v>44.13361700119361</v>
       </c>
       <c r="H10">
-        <v>16.05395037052321</v>
+        <v>12.2395169553504</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.68044581113862</v>
+        <v>6.895178087690381</v>
       </c>
       <c r="M10">
-        <v>16.30387489708052</v>
+        <v>15.17064736402001</v>
       </c>
       <c r="N10">
-        <v>18.49677954647522</v>
+        <v>11.15530153426266</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.01290860374274</v>
+        <v>28.23738640685981</v>
       </c>
       <c r="C11">
-        <v>12.45704643364208</v>
+        <v>16.83945190018811</v>
       </c>
       <c r="D11">
-        <v>5.316047135324506</v>
+        <v>3.413796574951199</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.86125442464778</v>
+        <v>31.2182490561386</v>
       </c>
       <c r="G11">
-        <v>39.0957605116188</v>
+        <v>45.57232401338581</v>
       </c>
       <c r="H11">
-        <v>16.05794758881534</v>
+        <v>12.45620478238853</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.6755525266439</v>
+        <v>6.962203415369951</v>
       </c>
       <c r="M11">
-        <v>16.38184066741271</v>
+        <v>15.72683644892406</v>
       </c>
       <c r="N11">
-        <v>18.44679437081693</v>
+        <v>10.94865315337127</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14632173947444</v>
+        <v>28.61545359865077</v>
       </c>
       <c r="C12">
-        <v>12.52916191860088</v>
+        <v>17.01288424767634</v>
       </c>
       <c r="D12">
-        <v>5.313982594833497</v>
+        <v>3.402457155203235</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.91969081166974</v>
+        <v>31.56028108045401</v>
       </c>
       <c r="G12">
-        <v>39.20898762828861</v>
+        <v>46.1159934958017</v>
       </c>
       <c r="H12">
-        <v>16.06003080844652</v>
+        <v>12.53978620555486</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.6739297448487</v>
+        <v>6.988147070800927</v>
       </c>
       <c r="M12">
-        <v>16.41172420267452</v>
+        <v>15.93368088713148</v>
       </c>
       <c r="N12">
-        <v>18.42814895122515</v>
+        <v>10.87046477758631</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.11764505678972</v>
+        <v>28.53433995800443</v>
       </c>
       <c r="C13">
-        <v>12.5136764037098</v>
+        <v>16.97564689650039</v>
       </c>
       <c r="D13">
-        <v>5.31442563475488</v>
+        <v>3.404899139003898</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.90705251551515</v>
+        <v>31.48662703304933</v>
       </c>
       <c r="G13">
-        <v>39.1845359395688</v>
+        <v>45.99895521019971</v>
       </c>
       <c r="H13">
-        <v>16.05955681887253</v>
+        <v>12.52171701972832</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.67426900720903</v>
+        <v>6.982534413045046</v>
       </c>
       <c r="M13">
-        <v>16.4052725745428</v>
+        <v>15.88929947035284</v>
       </c>
       <c r="N13">
-        <v>18.43215201945996</v>
+        <v>10.88730238395153</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.02390973748179</v>
+        <v>28.26863011920546</v>
       </c>
       <c r="C14">
-        <v>12.46300002616117</v>
+        <v>16.85377187548675</v>
       </c>
       <c r="D14">
-        <v>5.31587656489514</v>
+        <v>3.412863588091029</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.86603808809383</v>
+        <v>31.24639210813019</v>
       </c>
       <c r="G14">
-        <v>39.10504579512594</v>
+        <v>45.6170748803132</v>
       </c>
       <c r="H14">
-        <v>16.05810756174575</v>
+        <v>12.4630502911324</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.67541440781461</v>
+        <v>6.964326466494125</v>
       </c>
       <c r="M14">
-        <v>16.38429211163483</v>
+        <v>15.74392871599425</v>
       </c>
       <c r="N14">
-        <v>18.44525474046788</v>
+        <v>10.94221968738617</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.96633163821321</v>
+        <v>28.10496481248868</v>
       </c>
       <c r="C15">
-        <v>12.43182563487907</v>
+        <v>16.77878447727911</v>
       </c>
       <c r="D15">
-        <v>5.316769978181191</v>
+        <v>3.417742666696802</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.84107140640515</v>
+        <v>31.09921633000832</v>
       </c>
       <c r="G15">
-        <v>39.05655135779361</v>
+        <v>45.38301359759793</v>
       </c>
       <c r="H15">
-        <v>16.05729402386944</v>
+        <v>12.42731500498888</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.67614596750722</v>
+        <v>6.953247221151478</v>
       </c>
       <c r="M15">
-        <v>16.37148720895241</v>
+        <v>15.65439651550608</v>
       </c>
       <c r="N15">
-        <v>18.45331732877638</v>
+        <v>10.97586430618589</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.63397954064667</v>
+        <v>27.15298483212349</v>
       </c>
       <c r="C16">
-        <v>12.25115612024175</v>
+        <v>16.34390521399791</v>
       </c>
       <c r="D16">
-        <v>5.321961623643358</v>
+        <v>3.445718622685731</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.70041734253446</v>
+        <v>30.25545965966737</v>
       </c>
       <c r="G16">
-        <v>38.78172199369649</v>
+        <v>44.03943648355838</v>
       </c>
       <c r="H16">
-        <v>16.05376884006379</v>
+        <v>12.22556773596622</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.68079782950392</v>
+        <v>6.890875871043694</v>
       </c>
       <c r="M16">
-        <v>16.29883105252893</v>
+        <v>15.13376605751323</v>
       </c>
       <c r="N16">
-        <v>18.50008586523148</v>
+        <v>11.1688196657931</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.42806230596655</v>
+        <v>26.55627766525466</v>
       </c>
       <c r="C17">
-        <v>12.13854730862042</v>
+        <v>16.07250713635074</v>
       </c>
       <c r="D17">
-        <v>5.325210838386067</v>
+        <v>3.462902046075975</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.61632322580908</v>
+        <v>29.73757867469643</v>
       </c>
       <c r="G17">
-        <v>38.61594556368851</v>
+        <v>43.21321271587442</v>
       </c>
       <c r="H17">
-        <v>16.05262056874009</v>
+        <v>12.10448721096848</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.68406194997012</v>
+        <v>6.853601858714564</v>
       </c>
       <c r="M17">
-        <v>16.25492051586976</v>
+        <v>14.80755671746078</v>
       </c>
       <c r="N17">
-        <v>18.52928236257947</v>
+        <v>11.28738661146562</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.30892218241446</v>
+        <v>26.20834922650592</v>
       </c>
       <c r="C18">
-        <v>12.07313812172143</v>
+        <v>15.91470773823566</v>
       </c>
       <c r="D18">
-        <v>5.327103409974261</v>
+        <v>3.472795937951592</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.56877315088757</v>
+        <v>29.4396372889805</v>
       </c>
       <c r="G18">
-        <v>38.52166416868589</v>
+        <v>42.73728955049909</v>
       </c>
       <c r="H18">
-        <v>16.05233276414727</v>
+        <v>12.03582218407747</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.68609028278447</v>
+        <v>6.832522353454571</v>
       </c>
       <c r="M18">
-        <v>16.22991376871779</v>
+        <v>14.61739449025949</v>
       </c>
       <c r="N18">
-        <v>18.54626169261854</v>
+        <v>11.35567775474552</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.26846713380376</v>
+        <v>26.08973150420247</v>
       </c>
       <c r="C19">
-        <v>12.0508830554967</v>
+        <v>15.86098778523738</v>
       </c>
       <c r="D19">
-        <v>5.327748281563472</v>
+        <v>3.476147885853662</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.5528153026996</v>
+        <v>29.33875064159065</v>
       </c>
       <c r="G19">
-        <v>38.48992863101428</v>
+        <v>42.57603343751236</v>
       </c>
       <c r="H19">
-        <v>16.0522993067287</v>
+        <v>12.01274039254058</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.68680296632396</v>
+        <v>6.825446585779395</v>
       </c>
       <c r="M19">
-        <v>16.22149034170859</v>
+        <v>14.55257071042297</v>
       </c>
       <c r="N19">
-        <v>18.55204264302973</v>
+        <v>11.37881830329894</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.45005621605678</v>
+        <v>26.62028534224662</v>
       </c>
       <c r="C20">
-        <v>12.15060118749931</v>
+        <v>16.10157367088832</v>
       </c>
       <c r="D20">
-        <v>5.324862501825708</v>
+        <v>3.461071820971118</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.62519074676553</v>
+        <v>29.7927159483625</v>
       </c>
       <c r="G20">
-        <v>38.6334828328859</v>
+        <v>43.30123902100762</v>
       </c>
       <c r="H20">
-        <v>16.05270423294604</v>
+        <v>12.11727509076703</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.6836988634833</v>
+        <v>6.857532446513837</v>
       </c>
       <c r="M20">
-        <v>16.25956919233683</v>
+        <v>14.84254400312584</v>
       </c>
       <c r="N20">
-        <v>18.52615507792778</v>
+        <v>11.27475567298096</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.05147616394963</v>
+        <v>28.34686494827656</v>
       </c>
       <c r="C21">
-        <v>12.47791282132938</v>
+        <v>16.88963938286911</v>
       </c>
       <c r="D21">
-        <v>5.315449417340214</v>
+        <v>3.410524121735339</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.8780526187337</v>
+        <v>31.31696017909278</v>
       </c>
       <c r="G21">
-        <v>39.12835340135909</v>
+        <v>45.7292733357232</v>
       </c>
       <c r="H21">
-        <v>16.05851778603708</v>
+        <v>12.48024043554311</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.67507173105181</v>
+        <v>6.969659210452273</v>
       </c>
       <c r="M21">
-        <v>16.39044498232438</v>
+        <v>15.78672924158112</v>
       </c>
       <c r="N21">
-        <v>18.44139848876112</v>
+        <v>10.92608799426766</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.43738131153346</v>
+        <v>29.43439786072618</v>
       </c>
       <c r="C22">
-        <v>12.68588065459866</v>
+        <v>17.38966190577891</v>
       </c>
       <c r="D22">
-        <v>5.309506943681065</v>
+        <v>3.377523486226698</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.05032268083294</v>
+        <v>32.31208653436894</v>
       </c>
       <c r="G22">
-        <v>39.4606190270787</v>
+        <v>47.30954014796927</v>
       </c>
       <c r="H22">
-        <v>16.06563692856879</v>
+        <v>12.72637506194478</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.67077499460755</v>
+        <v>7.046226364114608</v>
       </c>
       <c r="M22">
-        <v>16.47806633935732</v>
+        <v>16.38186896643351</v>
       </c>
       <c r="N22">
-        <v>18.38765329069771</v>
+        <v>10.69855301726406</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.23211290522619</v>
+        <v>28.85764493472344</v>
       </c>
       <c r="C23">
-        <v>12.57544029621202</v>
+        <v>17.12415711581834</v>
       </c>
       <c r="D23">
-        <v>5.312659459446978</v>
+        <v>3.395136163053925</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.95775151391029</v>
+        <v>31.78107480041227</v>
       </c>
       <c r="G23">
-        <v>39.28250729211093</v>
+        <v>46.46672301166592</v>
       </c>
       <c r="H23">
-        <v>16.06153358437092</v>
+        <v>12.5941810319541</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.67294560256851</v>
+        <v>7.005056073290781</v>
       </c>
       <c r="M23">
-        <v>16.43111689280957</v>
+        <v>16.06620693379935</v>
       </c>
       <c r="N23">
-        <v>18.4161878236093</v>
+        <v>10.81998739717269</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.44011511228294</v>
+        <v>26.5913626636409</v>
       </c>
       <c r="C24">
-        <v>12.14515370948217</v>
+        <v>16.088438201428</v>
       </c>
       <c r="D24">
-        <v>5.325019908250444</v>
+        <v>3.461899218657067</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.62117925555872</v>
+        <v>29.76778901820678</v>
       </c>
       <c r="G24">
-        <v>38.62555103097174</v>
+        <v>43.26144517546382</v>
       </c>
       <c r="H24">
-        <v>16.05266524844977</v>
+        <v>12.11149074662121</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.68386254218565</v>
+        <v>6.855754339061799</v>
       </c>
       <c r="M24">
-        <v>16.25746678282677</v>
+        <v>14.82673441926461</v>
       </c>
       <c r="N24">
-        <v>18.52756831923054</v>
+        <v>11.28046572420648</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.5596337322939</v>
+        <v>23.96586046336686</v>
       </c>
       <c r="C25">
-        <v>11.65675071093564</v>
+        <v>14.9064127582416</v>
       </c>
       <c r="D25">
-        <v>5.339260136232431</v>
+        <v>3.534345377615417</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.28956607227584</v>
+        <v>27.59425899885386</v>
       </c>
       <c r="G25">
-        <v>37.95814184137536</v>
+        <v>39.77836576732759</v>
       </c>
       <c r="H25">
-        <v>16.05734134445677</v>
+        <v>11.62810346098508</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.70140794729809</v>
+        <v>6.708409092775327</v>
       </c>
       <c r="M25">
-        <v>16.07976594757442</v>
+        <v>13.5847208235019</v>
       </c>
       <c r="N25">
-        <v>18.65483868667901</v>
+        <v>11.78102136598574</v>
       </c>
       <c r="O25">
         <v>0</v>
